--- a/Andhra Pradesh.xlsx
+++ b/Andhra Pradesh.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirulislam/projects/PSF/elections/Last 3 years/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirulislam/projects/PSF/elections/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="1" r:id="rId1"/>
     <sheet name="2009" sheetId="2" r:id="rId2"/>
     <sheet name="2004" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -5132,8 +5132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K600"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="E471" sqref="E471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27935,8 +27935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K570"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="G463" sqref="G463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -49621,8 +49621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K280" sqref="K2:K280"/>
+    <sheetView topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
